--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/WISCONSIN_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/WISCONSIN_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1217"/>
+  <dimension ref="A1:D1211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C9">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C13">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C25">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C28">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C47">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C51">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C55">
@@ -1452,7 +1452,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C82">
@@ -1465,7 +1465,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C83">
@@ -1595,7 +1595,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C93">
@@ -1634,7 +1634,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C96">
@@ -1808,7 +1808,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C109">
@@ -1943,7 +1943,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C119">
@@ -1969,7 +1969,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2026,7 +2026,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C125">
@@ -2213,7 +2213,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C139">
@@ -2330,7 +2330,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C148">
@@ -2421,7 +2421,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C155">
@@ -2512,12 +2512,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C162">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C163">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C164">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C169">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C174">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C178">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C183">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C189">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C198">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C205">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C206">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C207">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C209">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C217">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C224">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C230">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C231">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C232">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C233">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C243">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C244">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C245">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C251">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C255">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C262">
@@ -3887,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C267">
@@ -3900,7 +3900,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C268">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C269">
@@ -3939,7 +3939,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C271">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C275">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C280">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C282">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C283">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C286">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C288">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C289">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C291">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C294">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C299">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C300">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C304">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C310">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C311">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C313">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C314">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C316">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C331">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C333">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C335">
@@ -4802,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C337">
@@ -4841,7 +4841,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C340">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C341">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C350">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C355">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C361">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C362">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C365">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C368">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C370">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C371">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C378">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C379">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C381">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C382">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C386">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C387">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C391">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C393">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C394">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C398">
@@ -5722,7 +5722,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C407">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C410">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C411">
@@ -5813,7 +5813,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C414">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C416">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C417">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C424">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C428">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C429">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C430">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C432">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C433">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C436">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C442">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C444">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C445">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C453">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C454">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C455">
@@ -6385,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C458">
@@ -6398,7 +6398,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C459">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C462">
@@ -6450,7 +6450,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C463">
@@ -6463,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C464">
@@ -6496,7 +6496,7 @@
         <v>919</v>
       </c>
       <c r="D466">
-        <v>0.09611965275598787</v>
+        <v>0.09611965275598788</v>
       </c>
     </row>
     <row r="467">
@@ -6702,7 +6702,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C482">
@@ -7326,7 +7326,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C530">
@@ -7617,7 +7617,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C552">
@@ -7721,7 +7721,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C560">
@@ -7773,7 +7773,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C564">
@@ -7825,7 +7825,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C568">
@@ -7838,7 +7838,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C569">
@@ -7916,7 +7916,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C575">
@@ -7960,7 +7960,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C578">
@@ -7986,7 +7986,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C580">
@@ -8051,7 +8051,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C585">
@@ -8290,7 +8290,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C603">
@@ -8334,7 +8334,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C606">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C609">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C612">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C614">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C617">
@@ -8490,7 +8490,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C618">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C619">
@@ -8529,7 +8529,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C621">
@@ -8542,7 +8542,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C622">
@@ -8620,7 +8620,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C628">
@@ -8646,7 +8646,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C630">
@@ -8659,7 +8659,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C631">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C632">
@@ -8685,7 +8685,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C633">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C634">
@@ -8711,7 +8711,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C635">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C636">
@@ -8867,7 +8867,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C647">
@@ -8971,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C655">
@@ -8997,7 +8997,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C657">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C675">
@@ -9244,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C676">
@@ -9582,7 +9582,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C702">
@@ -9712,7 +9712,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C712">
@@ -9751,7 +9751,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C715">
@@ -9855,7 +9855,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C723">
@@ -9868,7 +9868,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C724">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C743">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C745">
@@ -10492,7 +10492,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C772">
@@ -10713,7 +10713,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C789">
@@ -10817,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C797">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C798">
@@ -10843,7 +10843,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C799">
@@ -10856,7 +10856,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C800">
@@ -10869,7 +10869,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C801">
@@ -10882,7 +10882,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C802">
@@ -10895,7 +10895,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C803">
@@ -10934,7 +10934,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C806">
@@ -10947,7 +10947,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C807">
@@ -10960,7 +10960,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C808">
@@ -10973,7 +10973,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C809">
@@ -10999,7 +10999,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C811">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C812">
@@ -11025,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C813">
@@ -11038,7 +11038,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C814">
@@ -11051,7 +11051,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C815">
@@ -11186,7 +11186,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C825">
@@ -11316,7 +11316,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C835">
@@ -11420,7 +11420,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C843">
@@ -11459,7 +11459,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C846">
@@ -11485,7 +11485,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C848">
@@ -11550,7 +11550,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C853">
@@ -11628,7 +11628,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C859">
@@ -11706,7 +11706,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C865">
@@ -11849,7 +11849,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C876">
@@ -11862,7 +11862,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C877">
@@ -11914,7 +11914,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C881">
@@ -11927,7 +11927,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C882">
@@ -11966,7 +11966,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C885">
@@ -12244,7 +12244,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C906">
@@ -12270,7 +12270,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C908">
@@ -12296,7 +12296,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C910">
@@ -12309,7 +12309,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C911">
@@ -12335,7 +12335,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C913">
@@ -12475,7 +12475,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C923">
@@ -12488,7 +12488,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C924">
@@ -12553,7 +12553,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C929">
@@ -12709,7 +12709,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C941">
@@ -12787,7 +12787,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C947">
@@ -13122,7 +13122,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C972">
@@ -13509,7 +13509,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1001">
@@ -13605,7 +13605,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1008">
@@ -13644,7 +13644,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1011">
@@ -13683,7 +13683,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1014">
@@ -13696,7 +13696,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1015">
@@ -13922,7 +13922,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1032">
@@ -13961,7 +13961,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1035">
@@ -14052,7 +14052,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1042">
@@ -14078,7 +14078,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1044">
@@ -14169,7 +14169,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1051">
@@ -14273,7 +14273,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1059">
@@ -14293,7 +14293,7 @@
         <v>95</v>
       </c>
       <c r="D1060">
-        <v>0.009936199142349127</v>
+        <v>0.009936199142349129</v>
       </c>
     </row>
     <row r="1061">
@@ -14429,7 +14429,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1071">
@@ -14442,7 +14442,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1072">
@@ -14468,7 +14468,7 @@
     <row r="1074">
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1074">
@@ -14481,7 +14481,7 @@
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1075">
@@ -14494,7 +14494,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1076">
@@ -14624,7 +14624,7 @@
     <row r="1086">
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1086">
@@ -14676,7 +14676,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1090">
@@ -14715,7 +14715,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1093">
@@ -14741,7 +14741,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1095">
@@ -14806,7 +14806,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1100">
@@ -14936,7 +14936,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1110">
@@ -14975,7 +14975,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1113">
@@ -15079,7 +15079,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1121">
@@ -15105,7 +15105,7 @@
     <row r="1123">
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1123">
@@ -15482,7 +15482,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1152">
@@ -15726,7 +15726,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1170">
@@ -15843,7 +15843,7 @@
     <row r="1179">
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1179">
@@ -15947,7 +15947,7 @@
     <row r="1187">
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1187">
@@ -15960,7 +15960,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1188">
@@ -16103,7 +16103,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1199">
@@ -16116,7 +16116,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1200">
@@ -16129,7 +16129,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1201">
@@ -16168,7 +16168,7 @@
     <row r="1204">
       <c r="B1204" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1204">
@@ -16267,41 +16267,6 @@
       </c>
       <c r="D1211">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
